--- a/Fase 2/Evidencias Proyecto/Evidencias de documentación/sprint_2_burndown_chart_Sprint_5_dias.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de documentación/sprint_2_burndown_chart_Sprint_5_dias.xlsx
@@ -109,7 +109,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -133,6 +133,15 @@
       <name val="Calibri"/>
     </font>
     <font/>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -154,7 +163,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="8">
     <border/>
     <border>
       <left style="thin">
@@ -215,18 +224,6 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
     </border>
     <border>
       <left style="thin">
@@ -242,21 +239,11 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -274,27 +261,26 @@
     <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf borderId="7" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -402,11 +388,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="2002493771"/>
-        <c:axId val="493593154"/>
+        <c:axId val="1574169955"/>
+        <c:axId val="190442876"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2002493771"/>
+        <c:axId val="1574169955"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -458,10 +444,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493593154"/>
+        <c:crossAx val="190442876"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="493593154"/>
+        <c:axId val="190442876"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -525,7 +511,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2002493771"/>
+        <c:crossAx val="1574169955"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -895,10 +881,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="12">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C5" s="13">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
@@ -906,14 +892,15 @@
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="I5" s="16">
-        <f t="shared" ref="I5:I25" si="1">SUM(C5:H5)</f>
-        <v>3</v>
+        <f t="shared" ref="I5:I14" si="1">SUM(C5:H5)</f>
+        <v>4</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
+      <c r="O5" s="17"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="11" t="s">
@@ -925,12 +912,12 @@
       <c r="C6" s="11">
         <v>2.0</v>
       </c>
-      <c r="D6" s="15"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="17">
+      <c r="I6" s="18">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -939,6 +926,7 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
+      <c r="O6" s="17"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="11" t="s">
@@ -950,12 +938,12 @@
       <c r="C7" s="11">
         <v>2.0</v>
       </c>
-      <c r="D7" s="15"/>
+      <c r="D7" s="11"/>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
-      <c r="I7" s="17">
+      <c r="I7" s="18">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -964,6 +952,7 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
+      <c r="O7" s="17"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="11" t="s">
@@ -972,15 +961,17 @@
       <c r="B8" s="12">
         <v>4.0</v>
       </c>
-      <c r="C8" s="15"/>
+      <c r="C8" s="11">
+        <v>2.0</v>
+      </c>
       <c r="D8" s="11">
-        <v>4.0</v>
-      </c>
-      <c r="E8" s="15"/>
+        <v>2.0</v>
+      </c>
+      <c r="E8" s="11"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
-      <c r="I8" s="17">
+      <c r="I8" s="18">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -989,56 +980,59 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
+      <c r="O8" s="17"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="12">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C9" s="15"/>
-      <c r="D9" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="F9" s="11"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
-      <c r="I9" s="17">
+      <c r="I9" s="18">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
+      <c r="O9" s="17"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="12">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="E10" s="15"/>
+        <v>4.0</v>
+      </c>
+      <c r="E10" s="11"/>
       <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
+      <c r="G10" s="11"/>
       <c r="H10" s="15"/>
-      <c r="I10" s="17">
+      <c r="I10" s="18">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
+      <c r="O10" s="17"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="11" t="s">
@@ -1048,14 +1042,14 @@
         <v>2.0</v>
       </c>
       <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="11">
+      <c r="D11" s="11">
         <v>2.0</v>
       </c>
+      <c r="E11" s="11"/>
       <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="17">
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="18">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -1064,6 +1058,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
+      <c r="O11" s="17"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="11" t="s">
@@ -1073,14 +1068,14 @@
         <v>4.0</v>
       </c>
       <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="11">
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11">
         <v>4.0</v>
       </c>
-      <c r="F12" s="15"/>
       <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="17">
+      <c r="H12" s="11"/>
+      <c r="I12" s="18">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -1089,56 +1084,61 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
+      <c r="O12" s="17"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="12">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
-      <c r="E13" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11">
+        <v>2.0</v>
+      </c>
       <c r="H13" s="15"/>
-      <c r="I13" s="17">
+      <c r="I13" s="18">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
+      <c r="O13" s="17"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="12">
-        <v>5.0</v>
-      </c>
-      <c r="C14" s="15"/>
+        <v>6.0</v>
+      </c>
+      <c r="C14" s="11">
+        <v>2.0</v>
+      </c>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
-      <c r="F14" s="11">
-        <v>5.0</v>
-      </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="17">
+      <c r="F14" s="11"/>
+      <c r="G14" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="18">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
+      <c r="O14" s="17"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="11" t="s">
@@ -1147,16 +1147,16 @@
       <c r="B15" s="12">
         <v>2.0</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11">
+        <v>2.0</v>
+      </c>
       <c r="E15" s="15"/>
-      <c r="F15" s="11">
-        <v>2.0</v>
-      </c>
+      <c r="F15" s="11"/>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
-      <c r="I15" s="17">
-        <f t="shared" si="1"/>
+      <c r="I15" s="18">
+        <f t="shared" ref="I15:I20" si="2">SUM(C15:F15)</f>
         <v>2</v>
       </c>
       <c r="J15" s="2"/>
@@ -1164,6 +1164,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
+      <c r="O15" s="17"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="11" t="s">
@@ -1172,16 +1173,16 @@
       <c r="B16" s="12">
         <v>2.0</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
+      <c r="C16" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="D16" s="11"/>
       <c r="E16" s="15"/>
-      <c r="F16" s="11">
-        <v>2.0</v>
-      </c>
+      <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
-      <c r="I16" s="17">
-        <f t="shared" si="1"/>
+      <c r="I16" s="18">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J16" s="2"/>
@@ -1189,6 +1190,7 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
+      <c r="O16" s="17"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="11" t="s">
@@ -1197,16 +1199,16 @@
       <c r="B17" s="12">
         <v>4.0</v>
       </c>
-      <c r="C17" s="15"/>
+      <c r="C17" s="11">
+        <v>4.0</v>
+      </c>
       <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
+      <c r="E17" s="11"/>
       <c r="F17" s="15"/>
-      <c r="G17" s="11">
-        <v>4.0</v>
-      </c>
+      <c r="G17" s="15"/>
       <c r="H17" s="15"/>
-      <c r="I17" s="17">
-        <f t="shared" si="1"/>
+      <c r="I17" s="18">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="J17" s="2"/>
@@ -1214,31 +1216,33 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
+      <c r="O17" s="17"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="12">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
+      <c r="D18" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="E18" s="11"/>
       <c r="F18" s="15"/>
-      <c r="G18" s="11">
-        <v>3.0</v>
-      </c>
+      <c r="G18" s="15"/>
       <c r="H18" s="15"/>
-      <c r="I18" s="17">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="I18" s="18">
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
+      <c r="O18" s="17"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="11" t="s">
@@ -1248,15 +1252,15 @@
         <v>2.0</v>
       </c>
       <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="11">
+      <c r="D19" s="11">
         <v>2.0</v>
       </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="15"/>
       <c r="H19" s="15"/>
-      <c r="I19" s="17">
-        <f t="shared" si="1"/>
+      <c r="I19" s="18">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J19" s="2"/>
@@ -1264,56 +1268,61 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
+      <c r="O19" s="17"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="12">
-        <v>5.0</v>
-      </c>
-      <c r="C20" s="11">
-        <v>5.0</v>
-      </c>
+        <v>6.0</v>
+      </c>
+      <c r="C20" s="15"/>
       <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
+      <c r="E20" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="F20" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="G20" s="11"/>
       <c r="H20" s="15"/>
-      <c r="I20" s="17">
-        <f t="shared" si="1"/>
-        <v>5</v>
+      <c r="I20" s="18">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
+      <c r="O20" s="17"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="12">
-        <v>3.0</v>
-      </c>
-      <c r="C21" s="11">
-        <v>3.0</v>
-      </c>
+        <v>4.0</v>
+      </c>
+      <c r="C21" s="11"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11">
+        <v>4.0</v>
+      </c>
       <c r="H21" s="15"/>
-      <c r="I21" s="17">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="I21" s="18">
+        <f>SUM(D21:G21)</f>
+        <v>4</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
+      <c r="O21" s="17"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="11" t="s">
@@ -1329,9 +1338,9 @@
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="17">
-        <f t="shared" si="1"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="18">
+        <f t="shared" ref="I22:I25" si="3">SUM(C22:H22)</f>
         <v>4</v>
       </c>
       <c r="J22" s="2"/>
@@ -1339,31 +1348,33 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
+      <c r="O22" s="17"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="12">
-        <v>3.0</v>
-      </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="11">
-        <v>3.0</v>
-      </c>
+        <v>4.0</v>
+      </c>
+      <c r="C23" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="D23" s="11"/>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
-      <c r="I23" s="17">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="I23" s="18">
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
+      <c r="O23" s="17"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="11" t="s">
@@ -1372,16 +1383,16 @@
       <c r="B24" s="12">
         <v>2.0</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="11">
+      <c r="C24" s="11">
         <v>2.0</v>
       </c>
+      <c r="D24" s="11"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
-      <c r="I24" s="17">
-        <f t="shared" si="1"/>
+      <c r="I24" s="18">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="J24" s="2"/>
@@ -1389,24 +1400,25 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
+      <c r="O24" s="17"/>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="12">
         <v>2.0</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="18">
+      <c r="C25" s="11">
         <v>2.0</v>
       </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="20">
-        <f t="shared" si="1"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="19">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="J25" s="2"/>
@@ -1414,35 +1426,36 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
+      <c r="O25" s="17"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="3">
         <f>SUM(B5:B25)</f>
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C26" s="3">
         <f>B26</f>
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D26" s="3">
-        <f t="shared" ref="D26:H26" si="2">C26-SUM(C5:C25)</f>
-        <v>44</v>
+        <f t="shared" ref="D26:H26" si="4">C26-SUM(C5:C25)</f>
+        <v>40</v>
       </c>
       <c r="E26" s="3">
-        <f t="shared" si="2"/>
-        <v>27</v>
+        <f t="shared" si="4"/>
+        <v>24</v>
       </c>
       <c r="F26" s="3">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f t="shared" si="4"/>
+        <v>16</v>
       </c>
       <c r="G26" s="3">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="H26" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I26" s="2"/>
@@ -1453,31 +1466,31 @@
       <c r="N26" s="2"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="20" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <f t="shared" ref="B27:G27" si="3">C26</f>
-        <v>63</v>
+        <f t="shared" ref="B27:G27" si="5">C26</f>
+        <v>70</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" si="3"/>
-        <v>44</v>
+        <f t="shared" si="5"/>
+        <v>40</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="3"/>
-        <v>27</v>
+        <f t="shared" si="5"/>
+        <v>24</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" si="3"/>
-        <v>18</v>
+        <f t="shared" si="5"/>
+        <v>16</v>
       </c>
       <c r="F27" s="2">
-        <f t="shared" si="3"/>
-        <v>9</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="G27" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H27" s="2"/>
@@ -1492,30 +1505,30 @@
       <c r="A28" s="2"/>
       <c r="B28" s="3">
         <f>SUM(B5:B25)</f>
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C28" s="3">
         <f>SUM(B5:B25)</f>
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D28" s="3">
-        <f t="shared" ref="D28:H28" si="4">C28-(SUM($B$5:$B$25)/5)</f>
-        <v>50.4</v>
+        <f t="shared" ref="D28:H28" si="6">C28-(SUM($B$5:$B$25)/5)</f>
+        <v>56</v>
       </c>
       <c r="E28" s="3">
-        <f t="shared" si="4"/>
-        <v>37.8</v>
+        <f t="shared" si="6"/>
+        <v>42</v>
       </c>
       <c r="F28" s="3">
-        <f t="shared" si="4"/>
-        <v>25.2</v>
+        <f t="shared" si="6"/>
+        <v>28</v>
       </c>
       <c r="G28" s="3">
-        <f t="shared" si="4"/>
-        <v>12.6</v>
+        <f t="shared" si="6"/>
+        <v>14</v>
       </c>
       <c r="H28" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I28" s="3"/>
@@ -1526,31 +1539,31 @@
       <c r="N28" s="2"/>
     </row>
     <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="20" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="2">
         <f>B28</f>
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C29" s="2">
-        <f t="shared" ref="C29:G29" si="5">D28</f>
-        <v>50.4</v>
+        <f t="shared" ref="C29:G29" si="7">D28</f>
+        <v>56</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="5"/>
-        <v>37.8</v>
+        <f t="shared" si="7"/>
+        <v>42</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" si="5"/>
-        <v>25.2</v>
+        <f t="shared" si="7"/>
+        <v>28</v>
       </c>
       <c r="F29" s="2">
-        <f t="shared" si="5"/>
-        <v>12.6</v>
+        <f t="shared" si="7"/>
+        <v>14</v>
       </c>
       <c r="G29" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H29" s="2"/>
@@ -1563,7 +1576,7 @@
     </row>
     <row r="30" ht="14.25" customHeight="1">
       <c r="A30" s="2"/>
-      <c r="B30" s="22"/>
+      <c r="B30" s="21"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -1579,12 +1592,12 @@
     </row>
     <row r="31" ht="14.25" customHeight="1">
       <c r="A31" s="2"/>
-      <c r="B31" s="22"/>
+      <c r="B31" s="21"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="22"/>
+      <c r="G31" s="21"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -1595,12 +1608,12 @@
     </row>
     <row r="32" ht="14.25" customHeight="1">
       <c r="A32" s="2"/>
-      <c r="B32" s="22"/>
+      <c r="B32" s="21"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="22"/>
+      <c r="G32" s="21"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -1611,12 +1624,12 @@
     </row>
     <row r="33" ht="14.25" customHeight="1">
       <c r="A33" s="2"/>
-      <c r="B33" s="22"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
-      <c r="G33" s="22"/>
+      <c r="G33" s="21"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -1627,12 +1640,12 @@
     </row>
     <row r="34" ht="14.25" customHeight="1">
       <c r="A34" s="2"/>
-      <c r="B34" s="22"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
-      <c r="G34" s="22"/>
+      <c r="G34" s="21"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -1643,27 +1656,27 @@
     </row>
     <row r="35" ht="14.25" customHeight="1">
       <c r="A35" s="2"/>
-      <c r="B35" s="22"/>
+      <c r="B35" s="21"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
-      <c r="G35" s="22"/>
+      <c r="G35" s="21"/>
       <c r="H35" s="2"/>
     </row>
     <row r="36" ht="14.25" customHeight="1">
       <c r="A36" s="2"/>
-      <c r="B36" s="22"/>
+      <c r="B36" s="21"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="22"/>
+      <c r="G36" s="21"/>
       <c r="H36" s="2"/>
     </row>
     <row r="37" ht="14.25" customHeight="1">
       <c r="A37" s="2"/>
-      <c r="B37" s="22"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -1673,7 +1686,7 @@
     </row>
     <row r="38" ht="14.25" customHeight="1">
       <c r="A38" s="2"/>
-      <c r="B38" s="22"/>
+      <c r="B38" s="21"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -1683,7 +1696,7 @@
     </row>
     <row r="39" ht="14.25" customHeight="1">
       <c r="A39" s="2"/>
-      <c r="B39" s="22"/>
+      <c r="B39" s="21"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
